--- a/test_cases/PE-54/TC-13-Contraseña.xlsx
+++ b/test_cases/PE-54/TC-13-Contraseña.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Desktop\casos de prueba\PE-54\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Documents\GitHub\TestingAplicaciones-Alvinylasardillas-TPO\test_cases\PE-54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E54727-7BDA-4F18-BA43-714F9C1944D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110EC398-4D83-440E-8BB8-11E7BD149880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4878CB20-F5DA-4D89-879F-D1C366F35C19}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>PE-54.</t>
   </si>
   <si>
-    <t>Muestra valido, permite que se ingrese la contraseña</t>
-  </si>
-  <si>
     <t>Clikea "login"</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>Verificacion de Password</t>
+  </si>
+  <si>
+    <t>Muestra valido</t>
   </si>
 </sst>
 </file>
@@ -609,12 +609,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,51 +651,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -730,14 +708,36 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1065,16 +1065,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>35</v>
+      <c r="B1" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="55"/>
+      <c r="D1" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
@@ -1126,7 +1126,7 @@
       <c r="D7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1135,13 +1135,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>26</v>
+      <c r="E8" s="25" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21">
@@ -1152,8 +1152,8 @@
       <c r="D9" s="15">
         <v>2</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>30</v>
+      <c r="E9" s="26" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1161,11 +1161,11 @@
         <v>3</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="D10" s="30">
+      <c r="D10" s="28">
         <v>3</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>29</v>
+      <c r="E10" s="25" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21">
@@ -1173,185 +1173,191 @@
         <v>4</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="D11" s="29">
+      <c r="D11" s="27">
         <v>4</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>31</v>
+      <c r="E11" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="57"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
       <c r="A15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="64" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="35"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="31"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="52"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5" ht="28" customHeight="1">
-      <c r="A19" s="21">
+      <c r="A19" s="19">
         <v>1</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="57"/>
+      <c r="D19" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="58"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="31">
+        <v>2</v>
+      </c>
+      <c r="B20" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="36" t="s">
+      <c r="C20" s="62"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+    </row>
+    <row r="21" spans="1:5" ht="37" customHeight="1">
+      <c r="A21" s="19">
+        <v>3</v>
+      </c>
+      <c r="B21" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="46"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="33">
-        <v>2</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-    </row>
-    <row r="21" spans="1:5" ht="37" customHeight="1">
-      <c r="A21" s="21">
-        <v>3</v>
-      </c>
-      <c r="B21" s="34" t="s">
+      <c r="C21" s="41"/>
+      <c r="D21" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" spans="1:5" ht="26" customHeight="1">
-      <c r="A22" s="21">
+      <c r="A22" s="19">
         <v>4</v>
       </c>
-      <c r="B22" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="37" t="s">
+      <c r="B22" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="1:5" ht="14.5" customHeight="1">
+      <c r="A23" s="21">
+        <v>5</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+    </row>
+    <row r="24" spans="1:5" ht="37" customHeight="1">
+      <c r="A24" s="22">
+        <v>6</v>
+      </c>
+      <c r="B24" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="38"/>
-    </row>
-    <row r="23" spans="1:5" ht="14.5" customHeight="1">
-      <c r="A23" s="23">
-        <v>5</v>
-      </c>
-      <c r="B23" s="39" t="s">
+      <c r="C24" s="41"/>
+      <c r="D24" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="41"/>
+    </row>
+    <row r="25" spans="1:5" ht="28" customHeight="1">
+      <c r="A25" s="23">
+        <v>7</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="23">
+        <v>8</v>
+      </c>
+      <c r="B26" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-    </row>
-    <row r="24" spans="1:5" ht="37" customHeight="1">
-      <c r="A24" s="24">
-        <v>6</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="35"/>
-    </row>
-    <row r="25" spans="1:5" ht="28" customHeight="1">
-      <c r="A25" s="25">
-        <v>7</v>
-      </c>
-      <c r="B25" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="37" t="s">
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="23">
+        <v>9</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="38"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="25">
-        <v>8</v>
-      </c>
-      <c r="B26" s="66" t="s">
+      <c r="C27" s="41"/>
+      <c r="D27" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="25">
-        <v>9</v>
-      </c>
-      <c r="B27" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="35"/>
+      <c r="E27" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
+  <mergeCells count="26">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D1:E1"/>
@@ -1359,18 +1365,13 @@
     <mergeCell ref="B13:E14"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test_cases/PE-54/TC-13-Contraseña.xlsx
+++ b/test_cases/PE-54/TC-13-Contraseña.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Documents\GitHub\TestingAplicaciones-Alvinylasardillas-TPO\test_cases\PE-54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110EC398-4D83-440E-8BB8-11E7BD149880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AC3E63-6EF6-4400-9310-E28026B423F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4878CB20-F5DA-4D89-879F-D1C366F35C19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Muestra valido</t>
+  </si>
+  <si>
+    <t>click in sing in</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -651,10 +654,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -663,7 +667,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -673,13 +677,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -708,37 +727,22 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,15 +1057,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9B647B-A62E-4E07-8E2B-D01E81153806}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,12 +1075,12 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1090,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1105,7 +1109,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.5">
+    <row r="5" spans="1:6" ht="31.5">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
@@ -1116,7 +1120,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21">
+    <row r="8" spans="1:6" ht="21">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -1143,12 +1147,15 @@
       <c r="E8" s="25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="21">
+      <c r="F8" s="68"/>
+    </row>
+    <row r="9" spans="1:6" ht="21">
       <c r="A9" s="15">
         <v>2</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="D9" s="15">
         <v>2</v>
       </c>
@@ -1156,7 +1163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="15">
         <v>3</v>
       </c>
@@ -1168,7 +1175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21">
+    <row r="11" spans="1:6" ht="21">
       <c r="A11" s="15">
         <v>4</v>
       </c>
@@ -1180,32 +1187,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="48" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="37"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="49"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-    </row>
-    <row r="15" spans="1:5" ht="21">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="38"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+    </row>
+    <row r="15" spans="1:6" ht="21">
       <c r="A15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="17" t="s">
         <v>16</v>
       </c>
@@ -1217,147 +1224,141 @@
       <c r="A17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="56" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="33"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="29"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="50"/>
     </row>
     <row r="19" spans="1:5" ht="28" customHeight="1">
       <c r="A19" s="19">
         <v>1</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="42" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="58"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="31">
         <v>2</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:5" ht="37" customHeight="1">
       <c r="A21" s="19">
         <v>3</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="41"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:5" ht="26" customHeight="1">
       <c r="A22" s="19">
         <v>4</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="42"/>
+      <c r="D22" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="35"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:5" ht="14.5" customHeight="1">
       <c r="A23" s="21">
         <v>5</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5" ht="37" customHeight="1">
       <c r="A24" s="22">
         <v>6</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="41"/>
+      <c r="E24" s="33"/>
     </row>
     <row r="25" spans="1:5" ht="28" customHeight="1">
       <c r="A25" s="23">
         <v>7</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="35"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="23">
         <v>8</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="23">
         <v>9</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42" t="s">
+      <c r="C27" s="33"/>
+      <c r="D27" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="41"/>
+      <c r="E27" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D1:E1"/>
@@ -1366,12 +1367,18 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
